--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value588.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value588.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.610588140998649</v>
+        <v>1.090786576271057</v>
       </c>
       <c r="B1">
-        <v>1.776725592247077</v>
+        <v>1.956804990768433</v>
       </c>
       <c r="C1">
-        <v>1.812787322393962</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.365740958209842</v>
+        <v>2.096278429031372</v>
       </c>
       <c r="E1">
-        <v>1.087671167079785</v>
+        <v>1.13579535484314</v>
       </c>
     </row>
   </sheetData>
